--- a/data/crime_data/data_administrativa.xlsx
+++ b/data/crime_data/data_administrativa.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\GitHub\1ECO35_2022_2\data\crime_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\1ECO35_2022_2\data\crime_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB749F5-EC64-4AC6-9FD1-A42B4E4336DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{B77D91EB-AD39-4E50-887D-6C21FE367125}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="26295" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -515,7 +514,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,21 +877,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F04E58-CC26-4B50-B4B4-A180B8ED76EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.125" customWidth="1"/>
-    <col min="2" max="2" width="37.625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="53.125" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,7 +1413,7 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F23" t="s">
@@ -1588,7 +1587,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1" xr:uid="{147A92E4-5C6A-4492-8E88-59CA82F08076}"/>
+    <hyperlink ref="E30" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/crime_data/data_administrativa.xlsx
+++ b/data/crime_data/data_administrativa.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\1ECO35_2022_2\data\crime_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\GitHub\1ECO35_2022_2\data\crime_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB749F5-EC64-4AC6-9FD1-A42B4E4336DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="26295" windowHeight="14175"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{B77D91EB-AD39-4E50-887D-6C21FE367125}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -514,7 +515,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -877,21 +878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F04E58-CC26-4B50-B4B4-A180B8ED76EB}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.125" customWidth="1"/>
+    <col min="2" max="2" width="37.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,7 +1414,7 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>151</v>
       </c>
       <c r="F23" t="s">
@@ -1587,8 +1588,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1"/>
-    <hyperlink ref="E23" r:id="rId2"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{147A92E4-5C6A-4492-8E88-59CA82F08076}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
